--- a/outcomes/model_perf.xlsx
+++ b/outcomes/model_perf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCI\SEM 1\Data Mining and ML\Project\cardio\outcomes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCI\SEM 1\Data Mining and ML\Project\cardio_xgb\outcomes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6387E45D-4811-4FF9-8A9C-A97F9FDB3897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D059CB26-EF9E-45B4-8532-2AEE48AB095E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="1665" windowWidth="19515" windowHeight="11295" xr2:uid="{CD13E19C-3A4B-4700-A673-F659430230D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD13E19C-3A4B-4700-A673-F659430230D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t xml:space="preserve">Model Performance Benchmark </t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Acc before tuning</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
@@ -493,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8920BB-FB4F-433A-BE6F-7226A06ADCFC}">
-  <dimension ref="D2:L10"/>
+  <dimension ref="D2:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,12 +515,12 @@
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:12" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:13" ht="25.5" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
@@ -545,8 +548,11 @@
       <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
@@ -574,8 +580,11 @@
       <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="3">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
@@ -601,8 +610,11 @@
         <v>14</v>
       </c>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="3">
+        <v>68.59</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
@@ -628,8 +640,11 @@
         <v>14</v>
       </c>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="3">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
@@ -657,8 +672,11 @@
       <c r="L7" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="3">
+        <v>71.45</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
@@ -684,8 +702,11 @@
         <v>14</v>
       </c>
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="3">
+        <v>51.01</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
@@ -711,8 +732,11 @@
         <v>14</v>
       </c>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="3">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
@@ -739,6 +763,9 @@
       </c>
       <c r="L10" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="M10" s="3">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
